--- a/certificate_issue.xlsx
+++ b/certificate_issue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>roll no.</t>
   </si>
@@ -37,7 +37,13 @@
     <t>events</t>
   </si>
   <si>
-    <t/>
+    <t xml:space="preserve">pRATHAM </t>
+  </si>
+  <si>
+    <t>prathampshetty99sai@gmail.com</t>
+  </si>
+  <si>
+    <t>AI-POWERED CONVERSATIONAL AGENT FOR HEATHCARE ACCESS</t>
   </si>
 </sst>
 </file>
@@ -94,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -105,10 +111,7 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -422,13 +425,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="6.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="25.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="23.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="32.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="28.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="55.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="40.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="6.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="25.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="23.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="32.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="28.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="55.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="40.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33.75" customFormat="1" s="1">
@@ -454,17 +457,17 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="47.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>

--- a/certificate_issue.xlsx
+++ b/certificate_issue.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\important azure import\certificate_issue\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD9DA72-A616-46B2-9D2A-336E2AC1EA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="192">
   <si>
     <t>roll no.</t>
   </si>
@@ -25,7 +31,10 @@
     <t>name</t>
   </si>
   <si>
-    <t>email</t>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>TITLE</t>
   </si>
   <si>
     <t>phone</t>
@@ -37,21 +46,1524 @@
     <t>events</t>
   </si>
   <si>
-    <t xml:space="preserve">pRATHAM </t>
-  </si>
-  <si>
-    <t>prathampshetty99sai@gmail.com</t>
-  </si>
-  <si>
-    <t>AI-POWERED CONVERSATIONAL AGENT FOR HEATHCARE ACCESS</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>AKHILA P R</t>
+    </r>
+  </si>
+  <si>
+    <t>akhilapadmar10@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>BIRD SPECIES AND VOICE DETECTION USING DEEP LEARNING</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>AKHILESH SHETTY</t>
+    </r>
+  </si>
+  <si>
+    <t>akhishetty3546@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>DETECT AND RECOGNIZE CAR LICENCE PLATE FROM A VIDEO IN REAL TIME</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>AKSHATHA</t>
+    </r>
+  </si>
+  <si>
+    <t>pakshatha70@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>A WEB BASED MENTORING APPLICATION FOR RURAL AREA STUDENTS</t>
+    </r>
+  </si>
+  <si>
+    <t>akshathabillav79@gmail.co m</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>BRAIN HEMORRHAGE PREDICTION</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>AMAL BABU</t>
+    </r>
+  </si>
+  <si>
+    <t>amalbabu1200@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>SKIMLIT MEDICAL ABSTRACT CLASSIFIER</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>AMRUTH B R</t>
+    </r>
+  </si>
+  <si>
+    <t>amruthgowda555@gmail.co m</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>ANALYSIS OF CUSTOMER PURCHASE INTENTION TOWARDS CATALOGUE BUYING</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>AMRUTH SHETTY</t>
+    </r>
+  </si>
+  <si>
+    <t>Amruthshetty9449@gmail.co m</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>PARKINSON’S DISEASE PREDICTION USING MACHINE LEARNING</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>AMRUTHA</t>
+    </r>
+  </si>
+  <si>
+    <t>amrutha76761@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>SONG GENRE CLASSIFICTION</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>ANEESH SHETTY M</t>
+    </r>
+  </si>
+  <si>
+    <t>ashettym2001@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>DETECTION OF ALZHEIMER’S DISEASE USING MACHINE LEARNING</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>ANJALI</t>
+    </r>
+  </si>
+  <si>
+    <t>danjali2611@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>VERNACULAR SIGN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>DESHPANDE</t>
+    </r>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>LANGUAGE DETECTION USING MEDIAPIPE AND MACHINE LEARNING</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>ARCHANA</t>
+    </r>
+  </si>
+  <si>
+    <t>archanasabu26@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>CLOTH RECOMMENDATION SYSTEM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>ARUN KRISHNA P U</t>
+    </r>
+  </si>
+  <si>
+    <t>ak8134605@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>AI-POWERED CONVERSATIONAL AGENT FOR HEATHCARE ACCESS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>ARUNA KUMARA</t>
+    </r>
+  </si>
+  <si>
+    <t>arukore867@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>MEDICAL IMAGE SEGMENTATION</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>ASHA</t>
+    </r>
+  </si>
+  <si>
+    <t>gasha6832@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>CROP PROFIT PREDICTION</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>ASHITHA KALKURA</t>
+    </r>
+  </si>
+  <si>
+    <t>ashitha.kalkura1997@gmail. com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>EYE DISEASE DETECION</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>ATHMIYA H S</t>
+    </r>
+  </si>
+  <si>
+    <t>athmiyah@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>COFFEE BEANERY CLASSIFICATION</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>AVINASH N</t>
+    </r>
+  </si>
+  <si>
+    <t>avinashpoojary651@gmail.c om</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>VULNERABILITY DETECTION</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>BANJAN NEHA MOHAN</t>
+    </r>
+  </si>
+  <si>
+    <t>banjan.neha@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>CLASSIFICATION AND PREDICTION OF LIVER DISEASE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>BHARATH NESVI</t>
+    </r>
+  </si>
+  <si>
+    <t>Bharathnesvi462@gmail.co m</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>FAKE  NEWS DETECTION</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>CHINMAYAKRIS HNA SHARMA</t>
+    </r>
+  </si>
+  <si>
+    <t>chinmayakrishnasharma@gm ail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>REAL TIME LANGUAGE TRANSLATION IN VIDEO CALL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>DEEKSHITHA</t>
+    </r>
+  </si>
+  <si>
+    <t>deekshithakulal95@gmail.co m</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>RICE VARIETIES CLASSIFICATION</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>DEVIPRASAD A R KAYYA</t>
+    </r>
+  </si>
+  <si>
+    <t>deviprasadkayya27@gmail.c om</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>FISH FRESHNESS DETECTION USING MACHINE LEARNING</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>DINESH SUKRA GOND</t>
+    </r>
+  </si>
+  <si>
+    <t>dinugond53@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>RAINFALL PREDECTION</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>DURGAPRASAD</t>
+    </r>
+  </si>
+  <si>
+    <t>Durgaprasad7iu@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>E-Voting System using Facial Recognition with Deep Learning</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>GANESH NAVADA K</t>
+    </r>
+  </si>
+  <si>
+    <t>gnshpavoor.gnk15@gmail.co m</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>HANDWRITTEN DIGIT RECOGNITION USING DEEP LEARNING</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>GAREESHMA</t>
+    </r>
+  </si>
+  <si>
+    <t>gareeshmavtl@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>MIGRAINE CLASSIFICATION USING MACHINE LEARNING</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>GAUTHAM</t>
+    </r>
+  </si>
+  <si>
+    <t>gauthu789@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>ENVIROSENSE - SMART GARBAGE BIN MONITORING</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>ISHA MANOJ YERMAL</t>
+    </r>
+  </si>
+  <si>
+    <t>ishayermal@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>AUTOMATIC DETECTION OF CORN- PLANT DISEASE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>JAYASHREE H</t>
+    </r>
+  </si>
+  <si>
+    <t>jh516072@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>MEDICINAL PLANT CLASSIFICATION USING MACHINE LEARNING</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>KARAN LAXMAN SHANBHAG</t>
+    </r>
+  </si>
+  <si>
+    <t>shanbhagkaran@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>HATE SPEECH CLASSIFICATION</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>KIRTHAN KUMAR</t>
+    </r>
+  </si>
+  <si>
+    <t>keethudevadiga46@gmail.co m</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>EMPLOYEE MENTAL HEALTH ANALYSIS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>LOKESH KRISHNA HARIKANT</t>
+    </r>
+  </si>
+  <si>
+    <t>lokeshharikant4@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>DEVELOPMENT  OF PRIVACY ENHANCED GPT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>M R AKSHAYA</t>
+    </r>
+  </si>
+  <si>
+    <t>mrakshayakumar471@gmail.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>INDIAN AGRICULTURE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>KUMAR</t>
+    </r>
+  </si>
+  <si>
+    <t>com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>ANALYSIS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>MITHUN KUMAR</t>
+    </r>
+  </si>
+  <si>
+    <t>mithunkumaar098@gmail.co m</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>PROMOCONNECT: BRIDGING CREATORS AND PROMOTERS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>MOHAMMED AFNAN</t>
+    </r>
+  </si>
+  <si>
+    <t>jmafnan12@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>FISH SPECIES DETECTION USING DEEP LEARNING</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>NIKHITHA S SHETTY</t>
+    </r>
+  </si>
+  <si>
+    <t>nikkishetty121@gmail.com</t>
+  </si>
+  <si>
+    <t>SENTIMENTAL REVIEW ANALYSIS ABOUT THE RECENT JAPAN EARTHQUAKE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>NIREEKSHA RAI</t>
+    </r>
+  </si>
+  <si>
+    <t>rainikkie0503@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>STRESS ANALYSIS THROUGH SOCIAL MEDIA POST</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>NISARGA B Y</t>
+    </r>
+  </si>
+  <si>
+    <t>nisargaby131@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>NETWORK INTRUDER DETECTION SYSTEM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>NITHESH</t>
+    </r>
+  </si>
+  <si>
+    <t>nitheshdevadiga722@gmail.c om</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>AIR CANVAS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>PAVAN KUMAR</t>
+    </r>
+  </si>
+  <si>
+    <t>pavankumarjogi2001@gmail
+.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>LUNG CANCER DETECTION</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>PRATHEEK M</t>
+    </r>
+  </si>
+  <si>
+    <t>pratheekrai14@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>DENTAL CAVITY DETECTION</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>PREMAL NAGESH GOUDAR</t>
+    </r>
+  </si>
+  <si>
+    <t>premalgoudar@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>TRAFFIC SIGNS CLASSIFICATION USING DEEP LEARNING</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>RAMAMURTHI K M</t>
+    </r>
+  </si>
+  <si>
+    <t>ramamurthikm2023@gmail.c om</t>
+  </si>
+  <si>
+    <t>AGRICULTURE-CROP RECOMMENDATION SYSTEM BASED ON SEASON AND PRODUCTIVITY</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>ROHIT P NAIK</t>
+    </r>
+  </si>
+  <si>
+    <t>rohitnaik78924@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>DEEPFAKE DETECTION USING MACHINE LEARNING</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>SAHANA A L</t>
+    </r>
+  </si>
+  <si>
+    <t>sahanaal137@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>ASTHENOPIA EYE DETECTION USING MACHINE LEARNING ALGORITHM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>SAHANA S BANBEKAR</t>
+    </r>
+  </si>
+  <si>
+    <t>sahanabandekar03@gmail.co m</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>E-COMMERCE APP FOR ORGANIC FOOD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>SAMEEKSHA A POOJARY</t>
+    </r>
+  </si>
+  <si>
+    <t>anandsameeksha99@gmil.co m</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>PREDICTION OF THYROID DISEASE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>SHARAN KARANTH</t>
+    </r>
+  </si>
+  <si>
+    <t>sharankaranth7@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>WORLD EDUCATION DATA ANALYSIS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>SHASHANK</t>
+    </r>
+  </si>
+  <si>
+    <t>adigashashank6@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>AGE AND GENDER CLASSIFICATION USING DEEP LEARNING</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>SHASHANK B S</t>
+    </r>
+  </si>
+  <si>
+    <t>shashank.bs78@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>AMAZON PRODUCT RECOMMENDATION SYSTEM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>SHIVAN K</t>
+    </r>
+  </si>
+  <si>
+    <t>kshivan48@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>CLASSIFCATION AND GRADING OF ARECANUT USING DEEP LEARNING</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>SHREYA</t>
+    </r>
+  </si>
+  <si>
+    <t>shreyamv33@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>DETECTION OF VITAMIN DEFFICIENCY</t>
+    </r>
+  </si>
+  <si>
+    <t>shreyakulal42@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>MALARIA DETECTION</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>SHREYA DAS G</t>
+    </r>
+  </si>
+  <si>
+    <t>shreyagdas@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>FOOD RECOGNITION AND CALORIE MEASUREMENT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>SHRINIVAS DHARMA NAIK</t>
+    </r>
+  </si>
+  <si>
+    <t>sinunaik94@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>IMAGE SEGMENTATION USING MACHINE LEARNING</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>SUPREETHA</t>
+    </r>
+  </si>
+  <si>
+    <t>supthaacharya@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>SKIN CANCER CLASSIFICATION AND DETECTION</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>SYED AQEEF</t>
+    </r>
+  </si>
+  <si>
+    <t>Syedaqeef123@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>IMAGE FORGERY DETECTION AND CLASSIFICATION USING DEEP LEARNNG</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>VAISHNAVI M</t>
+    </r>
+  </si>
+  <si>
+    <t>vaishnavimanjalagiri@gmail. com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>IDENTIFYING RECYCLABLE ITEMS FROM IMAGES</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>VARSHA GADKAR</t>
+    </r>
+  </si>
+  <si>
+    <t>varshagadkar860@gmail.co m</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>SMART CHEQUE CLEARANCE SYSTEM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>VIGNESH</t>
+    </r>
+  </si>
+  <si>
+    <t>vigneshdevadigahdk2@gmal. com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>Detection of tuberculosis using chest X-Ray Images</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,9 +1578,20 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -81,7 +1604,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -96,36 +1619,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -136,10 +1689,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -177,71 +1730,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -269,7 +1822,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -292,11 +1845,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -305,13 +1858,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -321,7 +1874,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -330,7 +1883,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -339,7 +1892,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -347,10 +1900,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -415,26 +1968,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="5" width="6.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="25.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="23.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="32.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="28.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="55.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="40.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="90.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33.75" customFormat="1" s="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -447,7 +2001,7 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -456,21 +2010,703 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5" customFormat="1" s="1">
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="6"/>
+      <c r="D24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="3:5" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>191</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
